--- a/sentences_pattern.xlsx
+++ b/sentences_pattern.xlsx
@@ -404,7 +404,7 @@
     </r>
   </si>
   <si>
-    <t>epoch</t>
+    <t>artist-epoch</t>
   </si>
   <si>
     <r>
@@ -428,68 +428,8 @@
         <color theme="1"/>
       </rPr>
       <t>}?
-Who {defined,dominated} the {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}'s epoch?
-Can you give me some examples of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>character_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">} </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t xml:space="preserve">artist </t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>in {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>duration_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
+What is the epoch defined by {artist_list}?
+What is the epoch dominated by {artist_list}?
 What is best moment in the career of {</t>
     </r>
     <r>
@@ -506,12 +446,10 @@
         <color theme="1"/>
       </rPr>
       <t>}?
-Who is the most {character_list} artist in {duration_list}
-How did {artist_list}'s work reflects the societal and cultural changes of his era?
-What historical events or developments influenced the artists of {duration_list}?
-How did {artlist_list}'s work break from or conform to the traditions of their time?
-What were some of the major themes or subjects that artists of {duration_list} explored in their work?
-What were some of the criticisms or controversies surrounding the artists of {duration_list}?</t>
+What is the period when {artist_list} is the most popular?
+What is the era when {genre_list} artists showed up?
+What is the decade when the significance of {genre_list} was recognized?
+When did {artist_list} started to play {instrument_list}?</t>
     </r>
   </si>
   <si>
@@ -686,7 +624,7 @@
     </r>
   </si>
   <si>
-    <t>award</t>
+    <t>artist-award</t>
   </si>
   <si>
     <r>
@@ -694,7 +632,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>Who has won the {</t>
+      <t>Has {artist_list} won the {</t>
     </r>
     <r>
       <rPr>
@@ -710,22 +648,7 @@
         <color theme="1"/>
       </rPr>
       <t>} this year?
-Who won the {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>award_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} last year?
+Which award has this {charater_list} artist won in {duration_list}?
 What is the most important award that {</t>
     </r>
     <r>
@@ -742,17 +665,45 @@
         <color theme="1"/>
       </rPr>
       <t>} has received in his career?
-Who has won the most {award_list} awards in music history?
-Who has won the {award_list} the most times in the past decade?
-Who won the {award_list} at the most recent ceremony?
-Which musician was recognized with the {award_list}?
-Who won the prestigious {award_list} this year?
-Which singer-songwriter received the {award_list}?
-Who is the latest winner of the {award_list} in the music industry?</t>
+What is the most renowned award for {genre_list} songs?
+Which award was {artist_list} recognized with?
+What is the most prestigious award in {duration_list}?
+In my song list {playlist_name}, what awards has thoses song been awarded?
+For a {music_adjective_list} song, what is it likely be awarded?
+Which award impacted {artist_list}'s career?</t>
     </r>
   </si>
   <si>
     <t>genre-song</t>
+  </si>
+  <si>
+    <t>What is the typical song of {genre_list}?
+Can you suggest a popular {genre_list} song?
+What's a good example of a {genre_list} song with a strong beat?
+Could you name a {genre_list} song that features impressive vocals?
+What's a song that showcases the unique instrumentation of {genre_list} music?
+What's a song that's representative of {genre_list} music's roots?
+What's a popular {genre_list} song that's known for its powerful lyrics?
+Can you recommend a classic {genre_list} song?
+What are the defining characteristics of songs of the genre {genre_list}?
+How does this song challenge or push the boundaries of genre {genre_list}?
+Can you identify {genre_list}'s element in that song?</t>
+  </si>
+  <si>
+    <t>genre-artist</t>
+  </si>
+  <si>
+    <t>What is the popular artist of {genre_list}?
+Who is the most recognizable artist of {genre_list}?
+Who usually perform the {genre_list} music?
+Who is popular for {genre_list}?
+Who is your all-time favorite artist of {genre_list} and what makes them stand out to you?
+Who is the primary artist that {genre_list} is associated with?
+Who is the {genre_list} artist whom you listen to when {routine_list}?
+Who is considered the "King of {genre_list}" and why?</t>
+  </si>
+  <si>
+    <t>genre-album</t>
   </si>
   <si>
     <r>
@@ -760,24 +711,11 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>What is the style of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>song_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-What is the genre of {song_list}?
-What is the typical song of {</t>
+      <t>What are some representative albums of the genre {genre_list}?
+What are some representative albums of the style{genre_list}?
+How would you describe the albums of the genre {genre_list} in {duration_list}?
+What album would you recall when it comes to talking about {genre_list}?
+What are the main albums of {artist_list} on {</t>
     </r>
     <r>
       <rPr>
@@ -793,287 +731,8 @@
         <color theme="1"/>
       </rPr>
       <t>}?
-Is {song_list} a song of genre {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-Can you suggest a popular {genre_list} song?
-What's a good example of a {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} song with a strong beat?
-Could you name a {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} song that features impressive vocals?
-What's a song that showcases the unique instrumentation of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} music?
-What's a song that's representative of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} music's roots?
-What's a popular {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} song that's known for its powerful lyrics?
-Can you recommend a classic {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} song?</t>
-    </r>
-  </si>
-  <si>
-    <t>genre-artist</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What is the popular style of {artist_list}?
-What is the most recognizable style of {artist_list}?
-What genre of music does {artist_list} typically perform?
-What is the popular style of {artist_list}?
-What kind of music is {artist_list} known for?
-What is the primary genre that {artist_list} is associated with?
-In what musical style is {artist_list} most recognized?
-</t>
-  </si>
-  <si>
-    <t>genre-album</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>What genre would you say {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} falls under?
-Would you say {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} is representative of a particular musical movement or era?
-How would you describe the style of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-What are the dominant musical elements in {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-What sub-genre would you say {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} belongs to?
-What is the overall sound of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-"How would you describe the style of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-What are the main musical influences on {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}?
-What are some of the defining characteristics of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>album_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}'s genre?</t>
+What cultural or historical factors influenced the creation of {genre_list} albums?
+Can you find out the trace of {genre_list} throughout the album?</t>
     </r>
   </si>
   <si>
@@ -1343,7 +1002,7 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>Give me some songs of the {</t>
+      <t>What is the genre that is involved in the song {song</t>
     </r>
     <r>
       <rPr>
@@ -1351,15 +1010,33 @@
         <i/>
         <color theme="1"/>
       </rPr>
-      <t>genre_list</t>
+      <t>_list</t>
     </r>
     <r>
       <rPr>
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>}.
-Can you suggest some {</t>
+      <t>}?
+Can you suggest me the genre of {song_list}?
+I'm in the mood for {</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <i/>
+        <color theme="1"/>
+      </rPr>
+      <t>routine_list</t>
+    </r>
+    <r>
+      <rPr>
+        <rFont val="Arial"/>
+        <color theme="1"/>
+      </rPr>
+      <t>}, can you recommend some genres of music?
+Could you give me a list of genres related to {song_list}?
+What are some {</t>
     </r>
     <r>
       <rPr>
@@ -1374,195 +1051,12 @@
         <rFont val="Arial"/>
         <color theme="1"/>
       </rPr>
-      <t>} {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs?
-I'm in the mood for {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>}, can you recommend some songs?
-Could you give me a list of {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs to listen to?
-What are some popular {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs from the past decade?
-Can you recommend some {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>music_adjective_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs?
-What are some of the most iconic {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs of all time?
-Can you suggest some {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>music_adjective_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs for a workout playlist?
-What are some of the most influential {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs in music history?
-Can you suggest some {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>music_adjective_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} {</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <i/>
-        <color theme="1"/>
-      </rPr>
-      <t>genre_list</t>
-    </r>
-    <r>
-      <rPr>
-        <rFont val="Arial"/>
-        <color theme="1"/>
-      </rPr>
-      <t>} songs for a chill playlist?</t>
+      <t xml:space="preserve">} genres of song from {duration_list}?
+Can you recommend some genres of {music_adjective_list} songs in the list {playlist_name}?
+Can you identify any subgenres or variations within the genre that are present in {song_list}?
+What is the genre that {artist_list} is known for?
+What are some of the most influential genres in {duration_list}?
+</t>
     </r>
   </si>
   <si>
@@ -3477,6 +2971,7 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="2" max="2" width="75.13"/>
+    <col customWidth="1" min="3" max="3" width="76.0"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3771,10 +3266,10 @@
       <c r="A10" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="4"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
